--- a/config_10.27/game_enter_btn_config.xlsx
+++ b/config_10.27/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_10.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_10.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="16" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="312">
   <si>
     <t>id|行号</t>
   </si>
@@ -1391,19 +1391,27 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>万圣幸运礼包</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>103#87#100;102;106;11;93;94#36;89#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>"act_025_jrth","enter"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>万圣幸运礼包</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>103#87#100;102;106;11;93;94#36;89#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>36;89;105#97;100;102;106;11;93;94#58#30#</t>
+    <t>"act_033_xrzxlb","enter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人专享</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>36;89;105#97;100;102;106;11;93;94#58;107#30#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2446,7 +2454,7 @@
         <v>182</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F5" s="6"/>
     </row>
@@ -2836,13 +2844,13 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E114" sqref="E114"/>
+      <selection pane="bottomRight" activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4662,7 +4670,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -4671,8 +4679,28 @@
         <v>106</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>307</v>
-      </c>
+        <v>306</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>107</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B110" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -5009,9 +5037,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -5019,7 +5047,7 @@
   <cols>
     <col min="1" max="1" width="8.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="32.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.75" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.25" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.375" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
@@ -5069,7 +5097,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!D3</f>
@@ -6105,6 +6133,79 @@
         <f>'all_enter|所有按钮入口'!E101</f>
         <v>欢乐敲金蛋</v>
       </c>
+    </row>
+    <row r="102" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D102" s="6">
+        <f>'all_enter|所有按钮入口'!D102</f>
+        <v>101</v>
+      </c>
+      <c r="E102" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E102</f>
+        <v>小游戏累计赢金抽福卡</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D103" s="6">
+        <f>'all_enter|所有按钮入口'!D103</f>
+        <v>102</v>
+      </c>
+      <c r="E103" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E103</f>
+        <v>畅玩礼包</v>
+      </c>
+    </row>
+    <row r="104" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D104" s="6">
+        <f>'all_enter|所有按钮入口'!D104</f>
+        <v>103</v>
+      </c>
+      <c r="E104" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E104</f>
+        <v>核弹</v>
+      </c>
+    </row>
+    <row r="105" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D105" s="6">
+        <f>'all_enter|所有按钮入口'!D105</f>
+        <v>104</v>
+      </c>
+      <c r="E105" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E105</f>
+        <v>大额福利券（跳转小游戏入口）</v>
+      </c>
+    </row>
+    <row r="106" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D106" s="6">
+        <f>'all_enter|所有按钮入口'!D106</f>
+        <v>105</v>
+      </c>
+      <c r="E106" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E106</f>
+        <v>金鸡送礼（冲金鸡）</v>
+      </c>
+    </row>
+    <row r="107" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D107" s="6">
+        <f>'all_enter|所有按钮入口'!D107</f>
+        <v>106</v>
+      </c>
+      <c r="E107" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E107</f>
+        <v>万圣幸运礼包</v>
+      </c>
+    </row>
+    <row r="108" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D108" s="6">
+        <f>'all_enter|所有按钮入口'!D108</f>
+        <v>107</v>
+      </c>
+      <c r="E108" s="6" t="str">
+        <f>'all_enter|所有按钮入口'!E108</f>
+        <v>新人专享</v>
+      </c>
+    </row>
+    <row r="109" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D109" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
